--- a/BrancheIntermediare/ig/StructureDefinition-fr-lm-entete-document.xlsx
+++ b/BrancheIntermediare/ig/StructureDefinition-fr-lm-entete-document.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T16:46:30+00:00</t>
+    <t>2025-12-03T16:47:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/BrancheIntermediare/ig/StructureDefinition-fr-lm-entete-document.xlsx
+++ b/BrancheIntermediare/ig/StructureDefinition-fr-lm-entete-document.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T16:47:23+00:00</t>
+    <t>2025-12-04T14:08:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -386,7 +386,7 @@
     <t>fr-lm-entete-document.destinataire</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/fr-lm-destinataire-prevu-document
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/fr-lm-destinataire-prevu
 </t>
   </si>
   <si>
@@ -794,7 +794,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.80078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.6640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/BrancheIntermediare/ig/StructureDefinition-fr-lm-entete-document.xlsx
+++ b/BrancheIntermediare/ig/StructureDefinition-fr-lm-entete-document.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T14:08:40+00:00</t>
+    <t>2025-12-05T10:50:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
